--- a/paper/pldi21/img/data.xlsx
+++ b/paper/pldi21/img/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naldo/project/safe_ds/paper/pldi21/img/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302EED01-638E-D345-BF94-0155AD0B5737}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320DCFBC-4D2F-8D4E-BF3C-77957B3956CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="26720" activeTab="2" xr2:uid="{AA5F3911-CE54-0F46-97B8-ACBF8E362FDD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="6" xr2:uid="{AA5F3911-CE54-0F46-97B8-ACBF8E362FDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -23,6 +23,19 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Figure 8'!$A$1:$D$3464</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Figure 8'!$I$15</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Figure 8'!$I$16</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Figure 8'!$J$18:$K$18</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'Figure 8'!$J$19:$K$19</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'Figure 8'!$J$4:$K$4</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Figure 8'!$I$17</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Figure 8'!$I$18</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Figure 8'!$I$19</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Figure 8'!$I$4</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Figure 8'!$J$14:$K$14</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Figure 8'!$J$15:$K$15</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Figure 8'!$J$16:$K$16</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Figure 8'!$J$17:$K$17</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="59">
   <si>
     <t>Dynamic (Jalangi)</t>
   </si>
@@ -220,14 +233,42 @@
   <si>
     <t xml:space="preserve">  199 / 269        no-DS  </t>
   </si>
+  <si>
+    <t>dummy</t>
+  </si>
+  <si>
+    <t>MIN-1</t>
+  </si>
+  <si>
+    <t>MIN-2</t>
+  </si>
+  <si>
+    <t>MIN-3</t>
+  </si>
+  <si>
+    <t>MAX-1</t>
+  </si>
+  <si>
+    <t>MAX-2</t>
+  </si>
+  <si>
+    <t>MAX-3</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>no-DS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\x"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -308,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -336,6 +377,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1154,10 +1199,10 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>218.23800000000003</c:v>
+                  <c:v>93.38300000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44.983499999999999</c:v>
+                  <c:v>10.758500000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1176,6 +1221,9 @@
               <c:f>'Figure 8'!$I$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dummy</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1458,7 +1506,7 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.80574192869912709</c:v>
+                  <c:v>15.008261211644378</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1525,7 +1573,7 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>15.865236941503547</c:v>
+                  <c:v>1.6627176585582966</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1725,6 +1773,9 @@
               <c:f>'Figure 8'!$I$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dummy</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1940,6 +1991,788 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Figure 8'!$I$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Q1-min</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Figure 8'!$L$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>                       Speed Up</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Figure 8'!$N$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2E2E-1E48-BC85-421B975A0E56}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1742661936"/>
+        <c:axId val="1938489904"/>
+      </c:barChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Figure 8'!$I$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>min</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 8'!$L$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.80574192869912709</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>0.5</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2E2E-1E48-BC85-421B975A0E56}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1217159680"/>
+        <c:axId val="1217157904"/>
+      </c:scatterChart>
+      <c:catAx>
+        <c:axId val="1742661936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:noFill/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1938489904"/>
+        <c:crossesAt val="0.5"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1938489904"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:max val="64"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:noFill/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1742661936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1217157904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1217159680"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1217159680"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1217157904"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Figure 8'!$I$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Q1-min</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Figure 8'!$J$14:$K$14</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>  199 / 269        no-DS  </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>  269 / 269           DS     </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Figure 8'!$J$16:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.57950000000000301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1499999999999915E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2A75-C944-8EB9-EC87A97934E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1742661936"/>
+        <c:axId val="1938489904"/>
+      </c:barChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Figure 8'!$I$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAX-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 8'!$J$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>261.79000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>0.5</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2A75-C944-8EB9-EC87A97934E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Figure 8'!$I$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAX-2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 8'!$J$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>193.108</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>0.5</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C195-2247-871F-410CA4F2B1BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Figure 8'!$I$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAX-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 8'!$K$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>47.545000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1.5</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C195-2247-871F-410CA4F2B1BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1219583248"/>
+        <c:axId val="1219825968"/>
+      </c:scatterChart>
+      <c:catAx>
+        <c:axId val="1742661936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:noFill/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1938489904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1938489904"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:max val="512"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:noFill/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1742661936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1219825968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1219583248"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1219583248"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1219825968"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5855,7 +6688,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10809,7 +11642,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10838,7 +11671,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SAFEDS</c:v>
+                  <c:v>DS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12761,7 +13594,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12776,7 +13609,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91.514096764015477</c:v>
+                  <c:v>183.02819352803095</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12825,7 +13658,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12840,7 +13673,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53.571428571428569</c:v>
+                  <c:v>107.14285714285714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12889,7 +13722,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12904,7 +13737,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12931,7 +13764,7 @@
         <c:axId val="1444397295"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
+          <c:max val="120"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -12966,7 +13799,7 @@
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>SAFE</a:t>
+                  <a:t>no-DS</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -12998,17 +13831,14 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -13039,7 +13869,7 @@
         <c:axId val="1443977407"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
+          <c:max val="120"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -13074,7 +13904,7 @@
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>SAFEDS</a:t>
+                  <a:t>DS</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -13106,17 +13936,14 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -13185,10 +14012,11 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -15169,7 +15997,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>350</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15184,7 +16012,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>237.75598721299451</c:v>
+                  <c:v>339.65141030427787</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15233,7 +16061,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>350</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15248,7 +16076,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>178.57142857142858</c:v>
+                  <c:v>255.10204081632654</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15297,7 +16125,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>350</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15312,7 +16140,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>284.94423791821561</c:v>
+                  <c:v>407.06319702602229</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15339,7 +16167,7 @@
         <c:axId val="1444397295"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="350"/>
+          <c:max val="400"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -15374,7 +16202,7 @@
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>SAFE</a:t>
+                  <a:t>no-DS</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -15406,17 +16234,14 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -15442,11 +16267,13 @@
         <c:crossAx val="1443977407"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="50"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1443977407"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="350"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -15481,7 +16308,7 @@
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>SAFEDS</a:t>
+                  <a:t>DS</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -15513,17 +16340,14 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -15547,7 +16371,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1444397295"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -15592,6 +16416,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -15836,6 +16661,86 @@
 </file>
 
 <file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -17391,7 +18296,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -17499,11 +18404,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -17514,11 +18414,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -17550,9 +18445,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -17608,22 +18500,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -17728,8 +18621,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -17861,19 +18754,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -18412,6 +19306,1027 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -18927,7 +20842,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -19488,16 +21403,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>978200</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>73595</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>375389</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>13297</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>178809</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>91323</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1302495</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>31026</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19524,16 +21439,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>977412</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>59548</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>374601</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19712</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>178633</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>185961</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1271312</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>144486</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19555,6 +21470,80 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>370865</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>18439</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1267576</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>143213</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C704B998-4213-D544-8238-A352F1813800}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>375389</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>16228</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1302495</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>33957</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1137FA2A-3DE5-714D-9C0A-58D8E68EB77D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -19701,16 +21690,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>78099</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>738874</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>172578</xdr:rowOff>
+      <xdr:rowOff>196010</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>547999</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>153527</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>683523</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>139368</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19739,19 +21728,156 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.6296</cdr:x>
+      <cdr:y>0.07866</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.77014</cdr:x>
+      <cdr:y>0.20389</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88698C56-C109-9145-A9B7-FE7CC6681985}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2246331" y="164837"/>
+          <a:ext cx="501439" cy="262435"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>y=1.00x</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.78459</cdr:x>
+      <cdr:y>0.19942</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.92513</cdr:x>
+      <cdr:y>0.32465</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3760932F-8F3B-A843-A2C5-3E2F8ADEF16F}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2799318" y="417900"/>
+          <a:ext cx="501439" cy="262435"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>y=0.92x</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.78459</cdr:x>
+      <cdr:y>0.4141</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.92513</cdr:x>
+      <cdr:y>0.53933</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8E43888-7015-BB49-A596-068AEFD2B20C}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2799318" y="867791"/>
+          <a:ext cx="501439" cy="262435"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>y=0.54x</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>301133</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>170206</xdr:rowOff>
+      <xdr:rowOff>170207</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>118882</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>144870</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>325080</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>83569</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19779,6 +21905,335 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.68833</cdr:x>
+      <cdr:y>0.12918</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.82712</cdr:x>
+      <cdr:y>0.22664</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01E9D61C-A4EC-984B-81BD-CDE60B775E67}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2486824" y="347876"/>
+          <a:ext cx="501439" cy="262435"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>y=0.81x</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.80159</cdr:x>
+      <cdr:y>0.26928</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.94038</cdr:x>
+      <cdr:y>0.36673</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB13C632-B41C-C444-8879-C8CF42F80A93}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2885725" y="581641"/>
+          <a:ext cx="499657" cy="210504"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>y=0.68x</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.80056</cdr:x>
+      <cdr:y>0.39709</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.93936</cdr:x>
+      <cdr:y>0.49455</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{349CBEDB-1C41-6749-B667-63E5B1BA4A05}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2882029" y="857720"/>
+          <a:ext cx="499656" cy="210505"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>y=0.51x</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20090,66 +22545,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="2" customFormat="1" ht="18">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12" t="s">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
     </row>
     <row r="2" spans="1:26" s="2" customFormat="1">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12" t="s">
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12" t="s">
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12" t="s">
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
       <c r="Y2" s="4" t="s">
         <v>28</v>
       </c>
@@ -20301,7 +22756,7 @@
       </c>
       <c r="X4" s="3">
         <f t="shared" ref="X4:X67" ca="1" si="0">_xlfn.FLOOR.MATH($Z$3*RAND()) + $Y$3</f>
-        <v>18492</v>
+        <v>7826</v>
       </c>
     </row>
     <row r="5" spans="1:26" s="3" customFormat="1">
@@ -20374,7 +22829,7 @@
       </c>
       <c r="X5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>17565</v>
+        <v>16172</v>
       </c>
     </row>
     <row r="6" spans="1:26" s="3" customFormat="1">
@@ -20447,7 +22902,7 @@
       </c>
       <c r="X6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4651</v>
+        <v>7132</v>
       </c>
     </row>
     <row r="7" spans="1:26" s="3" customFormat="1">
@@ -20520,7 +22975,7 @@
       </c>
       <c r="X7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>21489</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="8" spans="1:26" s="3" customFormat="1">
@@ -20593,7 +23048,7 @@
       </c>
       <c r="X8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6021</v>
+        <v>16181</v>
       </c>
     </row>
     <row r="9" spans="1:26" s="3" customFormat="1">
@@ -20666,7 +23121,7 @@
       </c>
       <c r="X9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8040</v>
+        <v>13828</v>
       </c>
     </row>
     <row r="10" spans="1:26" s="3" customFormat="1">
@@ -20739,7 +23194,7 @@
       </c>
       <c r="X10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>21520</v>
+        <v>9376</v>
       </c>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1">
@@ -20812,7 +23267,7 @@
       </c>
       <c r="X11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9992</v>
+        <v>19079</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1">
@@ -20885,7 +23340,7 @@
       </c>
       <c r="X12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7403</v>
+        <v>9379</v>
       </c>
     </row>
     <row r="13" spans="1:26" s="3" customFormat="1">
@@ -20958,7 +23413,7 @@
       </c>
       <c r="X13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>18117</v>
+        <v>18688</v>
       </c>
     </row>
     <row r="14" spans="1:26" s="3" customFormat="1">
@@ -21031,7 +23486,7 @@
       </c>
       <c r="X14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8898</v>
+        <v>15775</v>
       </c>
     </row>
     <row r="15" spans="1:26" s="3" customFormat="1">
@@ -21104,7 +23559,7 @@
       </c>
       <c r="X15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9246</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="16" spans="1:26" s="3" customFormat="1">
@@ -21177,7 +23632,7 @@
       </c>
       <c r="X16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>15140</v>
+        <v>10900</v>
       </c>
     </row>
     <row r="17" spans="1:24" s="3" customFormat="1">
@@ -21250,7 +23705,7 @@
       </c>
       <c r="X17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3407</v>
+        <v>11390</v>
       </c>
     </row>
     <row r="18" spans="1:24" s="3" customFormat="1">
@@ -21323,7 +23778,7 @@
       </c>
       <c r="X18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>17393</v>
+        <v>11960</v>
       </c>
     </row>
     <row r="19" spans="1:24" s="3" customFormat="1">
@@ -21396,7 +23851,7 @@
       </c>
       <c r="X19" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>21603</v>
+        <v>11889</v>
       </c>
     </row>
     <row r="20" spans="1:24" s="3" customFormat="1">
@@ -21469,7 +23924,7 @@
       </c>
       <c r="X20" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>10706</v>
+        <v>10938</v>
       </c>
     </row>
     <row r="21" spans="1:24" s="3" customFormat="1">
@@ -21542,7 +23997,7 @@
       </c>
       <c r="X21" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7020</v>
+        <v>12104</v>
       </c>
     </row>
     <row r="22" spans="1:24" s="3" customFormat="1">
@@ -21615,7 +24070,7 @@
       </c>
       <c r="X22" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>18613</v>
+        <v>16974</v>
       </c>
     </row>
     <row r="23" spans="1:24" s="3" customFormat="1">
@@ -21688,7 +24143,7 @@
       </c>
       <c r="X23" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>21805</v>
+        <v>14395</v>
       </c>
     </row>
     <row r="24" spans="1:24" s="3" customFormat="1">
@@ -21761,7 +24216,7 @@
       </c>
       <c r="X24" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>20054</v>
+        <v>3845</v>
       </c>
     </row>
     <row r="25" spans="1:24" s="3" customFormat="1">
@@ -21834,7 +24289,7 @@
       </c>
       <c r="X25" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5488</v>
+        <v>18210</v>
       </c>
     </row>
     <row r="26" spans="1:24" s="3" customFormat="1">
@@ -21907,7 +24362,7 @@
       </c>
       <c r="X26" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>13709</v>
+        <v>5989</v>
       </c>
     </row>
     <row r="27" spans="1:24" s="3" customFormat="1">
@@ -21980,7 +24435,7 @@
       </c>
       <c r="X27" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4437</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="28" spans="1:24" s="3" customFormat="1">
@@ -22053,7 +24508,7 @@
       </c>
       <c r="X28" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5253</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="29" spans="1:24" s="3" customFormat="1">
@@ -22126,7 +24581,7 @@
       </c>
       <c r="X29" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7733</v>
+        <v>10175</v>
       </c>
     </row>
     <row r="30" spans="1:24" s="3" customFormat="1">
@@ -22199,7 +24654,7 @@
       </c>
       <c r="X30" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>21911</v>
+        <v>13790</v>
       </c>
     </row>
     <row r="31" spans="1:24" s="3" customFormat="1">
@@ -22272,7 +24727,7 @@
       </c>
       <c r="X31" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>14421</v>
+        <v>17930</v>
       </c>
     </row>
     <row r="32" spans="1:24" s="3" customFormat="1">
@@ -22345,7 +24800,7 @@
       </c>
       <c r="X32" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>20857</v>
+        <v>15378</v>
       </c>
     </row>
     <row r="33" spans="1:24" s="3" customFormat="1">
@@ -22418,7 +24873,7 @@
       </c>
       <c r="X33" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>18609</v>
+        <v>10916</v>
       </c>
     </row>
     <row r="34" spans="1:24" s="3" customFormat="1">
@@ -22491,7 +24946,7 @@
       </c>
       <c r="X34" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>21499</v>
+        <v>12463</v>
       </c>
     </row>
     <row r="35" spans="1:24" s="3" customFormat="1">
@@ -22564,7 +25019,7 @@
       </c>
       <c r="X35" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5945</v>
+        <v>15106</v>
       </c>
     </row>
     <row r="36" spans="1:24" s="3" customFormat="1">
@@ -22637,7 +25092,7 @@
       </c>
       <c r="X36" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>20957</v>
+        <v>8504</v>
       </c>
     </row>
     <row r="37" spans="1:24" s="3" customFormat="1">
@@ -22710,7 +25165,7 @@
       </c>
       <c r="X37" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6832</v>
+        <v>6129</v>
       </c>
     </row>
     <row r="38" spans="1:24" s="3" customFormat="1">
@@ -22783,7 +25238,7 @@
       </c>
       <c r="X38" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6349</v>
+        <v>15162</v>
       </c>
     </row>
     <row r="39" spans="1:24" s="3" customFormat="1">
@@ -22856,7 +25311,7 @@
       </c>
       <c r="X39" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6792</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="40" spans="1:24" s="3" customFormat="1">
@@ -22929,7 +25384,7 @@
       </c>
       <c r="X40" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>18221</v>
+        <v>7205</v>
       </c>
     </row>
     <row r="41" spans="1:24" s="3" customFormat="1">
@@ -23002,7 +25457,7 @@
       </c>
       <c r="X41" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>11275</v>
+        <v>4570</v>
       </c>
     </row>
     <row r="42" spans="1:24" s="3" customFormat="1">
@@ -23075,7 +25530,7 @@
       </c>
       <c r="X42" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>12088</v>
+        <v>13109</v>
       </c>
     </row>
     <row r="43" spans="1:24" s="3" customFormat="1">
@@ -23148,7 +25603,7 @@
       </c>
       <c r="X43" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>21447</v>
+        <v>5916</v>
       </c>
     </row>
     <row r="44" spans="1:24" s="3" customFormat="1">
@@ -23221,7 +25676,7 @@
       </c>
       <c r="X44" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>21906</v>
+        <v>6240</v>
       </c>
     </row>
     <row r="45" spans="1:24" s="3" customFormat="1">
@@ -23294,7 +25749,7 @@
       </c>
       <c r="X45" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4851</v>
+        <v>9471</v>
       </c>
     </row>
     <row r="46" spans="1:24" s="3" customFormat="1">
@@ -23367,7 +25822,7 @@
       </c>
       <c r="X46" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>13700</v>
+        <v>21502</v>
       </c>
     </row>
     <row r="47" spans="1:24" s="3" customFormat="1">
@@ -23440,7 +25895,7 @@
       </c>
       <c r="X47" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>11214</v>
+        <v>19511</v>
       </c>
     </row>
     <row r="48" spans="1:24" s="3" customFormat="1">
@@ -23513,7 +25968,7 @@
       </c>
       <c r="X48" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>15866</v>
+        <v>10685</v>
       </c>
     </row>
     <row r="49" spans="1:24" s="3" customFormat="1">
@@ -23586,7 +26041,7 @@
       </c>
       <c r="X49" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5915</v>
+        <v>19863</v>
       </c>
     </row>
     <row r="50" spans="1:24" s="3" customFormat="1">
@@ -23659,7 +26114,7 @@
       </c>
       <c r="X50" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>21747</v>
+        <v>6765</v>
       </c>
     </row>
     <row r="51" spans="1:24" s="3" customFormat="1">
@@ -23732,7 +26187,7 @@
       </c>
       <c r="X51" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>17961</v>
+        <v>16663</v>
       </c>
     </row>
     <row r="52" spans="1:24" s="3" customFormat="1">
@@ -23805,7 +26260,7 @@
       </c>
       <c r="X52" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>14243</v>
+        <v>15964</v>
       </c>
     </row>
     <row r="53" spans="1:24" s="3" customFormat="1">
@@ -23878,7 +26333,7 @@
       </c>
       <c r="X53" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>14515</v>
+        <v>20794</v>
       </c>
     </row>
     <row r="54" spans="1:24" s="3" customFormat="1">
@@ -23951,7 +26406,7 @@
       </c>
       <c r="X54" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>18066</v>
+        <v>17955</v>
       </c>
     </row>
     <row r="55" spans="1:24" s="3" customFormat="1">
@@ -24024,7 +26479,7 @@
       </c>
       <c r="X55" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>19888</v>
+        <v>13218</v>
       </c>
     </row>
     <row r="56" spans="1:24" s="3" customFormat="1">
@@ -24097,7 +26552,7 @@
       </c>
       <c r="X56" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>18461</v>
+        <v>11759</v>
       </c>
     </row>
     <row r="57" spans="1:24" s="3" customFormat="1">
@@ -24170,7 +26625,7 @@
       </c>
       <c r="X57" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8773</v>
+        <v>18222</v>
       </c>
     </row>
     <row r="58" spans="1:24" s="3" customFormat="1">
@@ -24243,7 +26698,7 @@
       </c>
       <c r="X58" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>20134</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="59" spans="1:24" s="3" customFormat="1">
@@ -24316,7 +26771,7 @@
       </c>
       <c r="X59" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>16512</v>
+        <v>19352</v>
       </c>
     </row>
     <row r="60" spans="1:24" s="3" customFormat="1">
@@ -24389,7 +26844,7 @@
       </c>
       <c r="X60" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>10577</v>
+        <v>13067</v>
       </c>
     </row>
     <row r="61" spans="1:24" s="3" customFormat="1">
@@ -24462,7 +26917,7 @@
       </c>
       <c r="X61" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>18316</v>
+        <v>4836</v>
       </c>
     </row>
     <row r="62" spans="1:24" s="3" customFormat="1">
@@ -24535,7 +26990,7 @@
       </c>
       <c r="X62" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2499</v>
+        <v>10496</v>
       </c>
     </row>
     <row r="63" spans="1:24" s="3" customFormat="1">
@@ -24608,7 +27063,7 @@
       </c>
       <c r="X63" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8973</v>
+        <v>15076</v>
       </c>
     </row>
     <row r="64" spans="1:24" s="3" customFormat="1">
@@ -24681,7 +27136,7 @@
       </c>
       <c r="X64" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>13850</v>
+        <v>17349</v>
       </c>
     </row>
     <row r="65" spans="1:24" s="3" customFormat="1">
@@ -24754,7 +27209,7 @@
       </c>
       <c r="X65" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3123</v>
+        <v>15262</v>
       </c>
     </row>
     <row r="66" spans="1:24" s="3" customFormat="1">
@@ -24827,7 +27282,7 @@
       </c>
       <c r="X66" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>20830</v>
+        <v>17047</v>
       </c>
     </row>
     <row r="67" spans="1:24" s="3" customFormat="1">
@@ -24900,7 +27355,7 @@
       </c>
       <c r="X67" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>21486</v>
+        <v>13196</v>
       </c>
     </row>
     <row r="68" spans="1:24" s="3" customFormat="1">
@@ -24973,7 +27428,7 @@
       </c>
       <c r="X68" s="3">
         <f t="shared" ref="X68:X131" ca="1" si="5">_xlfn.FLOOR.MATH($Z$3*RAND()) + $Y$3</f>
-        <v>20872</v>
+        <v>10360</v>
       </c>
     </row>
     <row r="69" spans="1:24" s="3" customFormat="1">
@@ -25046,7 +27501,7 @@
       </c>
       <c r="X69" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>12405</v>
+        <v>9218</v>
       </c>
     </row>
     <row r="70" spans="1:24" s="3" customFormat="1">
@@ -25119,7 +27574,7 @@
       </c>
       <c r="X70" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>13636</v>
+        <v>3354</v>
       </c>
     </row>
     <row r="71" spans="1:24" s="3" customFormat="1">
@@ -25192,7 +27647,7 @@
       </c>
       <c r="X71" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>14513</v>
+        <v>18167</v>
       </c>
     </row>
     <row r="72" spans="1:24" s="3" customFormat="1">
@@ -25265,7 +27720,7 @@
       </c>
       <c r="X72" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>3701</v>
+        <v>8132</v>
       </c>
     </row>
     <row r="73" spans="1:24" s="3" customFormat="1">
@@ -25338,7 +27793,7 @@
       </c>
       <c r="X73" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>19482</v>
+        <v>17240</v>
       </c>
     </row>
     <row r="74" spans="1:24" s="3" customFormat="1">
@@ -25411,7 +27866,7 @@
       </c>
       <c r="X74" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>17081</v>
+        <v>18484</v>
       </c>
     </row>
     <row r="75" spans="1:24" s="3" customFormat="1">
@@ -25484,7 +27939,7 @@
       </c>
       <c r="X75" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>19038</v>
+        <v>20076</v>
       </c>
     </row>
     <row r="76" spans="1:24" s="3" customFormat="1">
@@ -25557,7 +28012,7 @@
       </c>
       <c r="X76" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>15595</v>
+        <v>10302</v>
       </c>
     </row>
     <row r="77" spans="1:24" s="3" customFormat="1">
@@ -25630,7 +28085,7 @@
       </c>
       <c r="X77" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>20209</v>
+        <v>19491</v>
       </c>
     </row>
     <row r="78" spans="1:24" s="3" customFormat="1">
@@ -25703,7 +28158,7 @@
       </c>
       <c r="X78" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>14893</v>
+        <v>16558</v>
       </c>
     </row>
     <row r="79" spans="1:24" s="3" customFormat="1">
@@ -25776,7 +28231,7 @@
       </c>
       <c r="X79" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>7267</v>
+        <v>11381</v>
       </c>
     </row>
     <row r="80" spans="1:24" s="3" customFormat="1">
@@ -25849,7 +28304,7 @@
       </c>
       <c r="X80" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>17622</v>
+        <v>20158</v>
       </c>
     </row>
     <row r="81" spans="1:24" s="3" customFormat="1">
@@ -25922,7 +28377,7 @@
       </c>
       <c r="X81" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>16417</v>
+        <v>4524</v>
       </c>
     </row>
     <row r="82" spans="1:24" s="3" customFormat="1">
@@ -25995,7 +28450,7 @@
       </c>
       <c r="X82" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>3678</v>
+        <v>18822</v>
       </c>
     </row>
     <row r="83" spans="1:24" s="3" customFormat="1">
@@ -26068,7 +28523,7 @@
       </c>
       <c r="X83" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>18161</v>
+        <v>5613</v>
       </c>
     </row>
     <row r="84" spans="1:24" s="3" customFormat="1">
@@ -26141,7 +28596,7 @@
       </c>
       <c r="X84" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>12488</v>
+        <v>18043</v>
       </c>
     </row>
     <row r="85" spans="1:24" s="3" customFormat="1">
@@ -26214,7 +28669,7 @@
       </c>
       <c r="X85" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>10929</v>
+        <v>12975</v>
       </c>
     </row>
     <row r="86" spans="1:24" s="3" customFormat="1">
@@ -26287,7 +28742,7 @@
       </c>
       <c r="X86" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>20482</v>
+        <v>21121</v>
       </c>
     </row>
     <row r="87" spans="1:24" s="3" customFormat="1">
@@ -26360,7 +28815,7 @@
       </c>
       <c r="X87" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>8865</v>
+        <v>21944</v>
       </c>
     </row>
     <row r="88" spans="1:24" s="3" customFormat="1">
@@ -26433,7 +28888,7 @@
       </c>
       <c r="X88" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4087</v>
+        <v>16334</v>
       </c>
     </row>
     <row r="89" spans="1:24" s="3" customFormat="1">
@@ -26506,7 +28961,7 @@
       </c>
       <c r="X89" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>3629</v>
+        <v>21683</v>
       </c>
     </row>
     <row r="90" spans="1:24" s="3" customFormat="1">
@@ -26579,7 +29034,7 @@
       </c>
       <c r="X90" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5661</v>
+        <v>20813</v>
       </c>
     </row>
     <row r="91" spans="1:24" s="3" customFormat="1">
@@ -26652,7 +29107,7 @@
       </c>
       <c r="X91" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>8620</v>
+        <v>16574</v>
       </c>
     </row>
     <row r="92" spans="1:24" s="3" customFormat="1">
@@ -26725,7 +29180,7 @@
       </c>
       <c r="X92" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>13161</v>
+        <v>5613</v>
       </c>
     </row>
     <row r="93" spans="1:24" s="3" customFormat="1">
@@ -26798,7 +29253,7 @@
       </c>
       <c r="X93" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>20546</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="94" spans="1:24" s="3" customFormat="1">
@@ -26871,7 +29326,7 @@
       </c>
       <c r="X94" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4687</v>
+        <v>9255</v>
       </c>
     </row>
     <row r="95" spans="1:24" s="3" customFormat="1">
@@ -26944,7 +29399,7 @@
       </c>
       <c r="X95" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>19310</v>
+        <v>9098</v>
       </c>
     </row>
     <row r="96" spans="1:24" s="3" customFormat="1">
@@ -27017,7 +29472,7 @@
       </c>
       <c r="X96" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>10922</v>
+        <v>20609</v>
       </c>
     </row>
     <row r="97" spans="1:24" s="3" customFormat="1">
@@ -27090,7 +29545,7 @@
       </c>
       <c r="X97" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>13558</v>
+        <v>18212</v>
       </c>
     </row>
     <row r="98" spans="1:24" s="3" customFormat="1">
@@ -27163,7 +29618,7 @@
       </c>
       <c r="X98" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>19449</v>
+        <v>11982</v>
       </c>
     </row>
     <row r="99" spans="1:24" s="3" customFormat="1">
@@ -27236,7 +29691,7 @@
       </c>
       <c r="X99" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>17782</v>
+        <v>4479</v>
       </c>
     </row>
     <row r="100" spans="1:24" s="3" customFormat="1">
@@ -27309,7 +29764,7 @@
       </c>
       <c r="X100" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>21599</v>
+        <v>15055</v>
       </c>
     </row>
     <row r="101" spans="1:24" s="3" customFormat="1">
@@ -27382,7 +29837,7 @@
       </c>
       <c r="X101" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>3423</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="102" spans="1:24" s="3" customFormat="1">
@@ -27455,7 +29910,7 @@
       </c>
       <c r="X102" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4071</v>
+        <v>10223</v>
       </c>
     </row>
     <row r="103" spans="1:24" s="3" customFormat="1">
@@ -27528,7 +29983,7 @@
       </c>
       <c r="X103" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>10556</v>
+        <v>9140</v>
       </c>
     </row>
     <row r="104" spans="1:24" s="3" customFormat="1">
@@ -27601,7 +30056,7 @@
       </c>
       <c r="X104" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5171</v>
+        <v>9496</v>
       </c>
     </row>
     <row r="105" spans="1:24" s="3" customFormat="1">
@@ -27674,7 +30129,7 @@
       </c>
       <c r="X105" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>10933</v>
+        <v>10068</v>
       </c>
     </row>
     <row r="106" spans="1:24" s="3" customFormat="1">
@@ -27747,7 +30202,7 @@
       </c>
       <c r="X106" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>21942</v>
+        <v>13839</v>
       </c>
     </row>
     <row r="107" spans="1:24" s="3" customFormat="1">
@@ -27820,7 +30275,7 @@
       </c>
       <c r="X107" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>6018</v>
+        <v>6631</v>
       </c>
     </row>
     <row r="108" spans="1:24" s="3" customFormat="1">
@@ -27893,7 +30348,7 @@
       </c>
       <c r="X108" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>21894</v>
+        <v>18671</v>
       </c>
     </row>
     <row r="109" spans="1:24" s="3" customFormat="1">
@@ -27966,7 +30421,7 @@
       </c>
       <c r="X109" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>20293</v>
+        <v>5689</v>
       </c>
     </row>
     <row r="110" spans="1:24" s="3" customFormat="1">
@@ -28039,7 +30494,7 @@
       </c>
       <c r="X110" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>11766</v>
+        <v>5909</v>
       </c>
     </row>
     <row r="111" spans="1:24" s="3" customFormat="1">
@@ -28112,7 +30567,7 @@
       </c>
       <c r="X111" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>20518</v>
+        <v>18773</v>
       </c>
     </row>
     <row r="112" spans="1:24" s="3" customFormat="1">
@@ -28185,7 +30640,7 @@
       </c>
       <c r="X112" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4220</v>
+        <v>18838</v>
       </c>
     </row>
     <row r="113" spans="1:24" s="3" customFormat="1">
@@ -28258,7 +30713,7 @@
       </c>
       <c r="X113" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>7656</v>
+        <v>18162</v>
       </c>
     </row>
     <row r="114" spans="1:24" s="3" customFormat="1">
@@ -28331,7 +30786,7 @@
       </c>
       <c r="X114" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>12991</v>
+        <v>16176</v>
       </c>
     </row>
     <row r="115" spans="1:24" s="3" customFormat="1">
@@ -28404,7 +30859,7 @@
       </c>
       <c r="X115" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>2872</v>
+        <v>17045</v>
       </c>
     </row>
     <row r="116" spans="1:24" s="3" customFormat="1">
@@ -28477,7 +30932,7 @@
       </c>
       <c r="X116" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>16891</v>
+        <v>15147</v>
       </c>
     </row>
     <row r="117" spans="1:24" s="3" customFormat="1">
@@ -28550,7 +31005,7 @@
       </c>
       <c r="X117" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>6021</v>
+        <v>4676</v>
       </c>
     </row>
     <row r="118" spans="1:24" s="3" customFormat="1">
@@ -28623,7 +31078,7 @@
       </c>
       <c r="X118" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5769</v>
+        <v>14325</v>
       </c>
     </row>
     <row r="119" spans="1:24" s="3" customFormat="1">
@@ -28696,7 +31151,7 @@
       </c>
       <c r="X119" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>14907</v>
+        <v>7483</v>
       </c>
     </row>
     <row r="120" spans="1:24" s="3" customFormat="1">
@@ -28769,7 +31224,7 @@
       </c>
       <c r="X120" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>14397</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="121" spans="1:24" s="3" customFormat="1">
@@ -28842,7 +31297,7 @@
       </c>
       <c r="X121" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>20353</v>
+        <v>18581</v>
       </c>
     </row>
     <row r="122" spans="1:24" s="3" customFormat="1">
@@ -28915,7 +31370,7 @@
       </c>
       <c r="X122" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5889</v>
+        <v>9232</v>
       </c>
     </row>
     <row r="123" spans="1:24" s="3" customFormat="1">
@@ -28988,7 +31443,7 @@
       </c>
       <c r="X123" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>16352</v>
+        <v>20576</v>
       </c>
     </row>
     <row r="124" spans="1:24" s="3" customFormat="1">
@@ -29061,7 +31516,7 @@
       </c>
       <c r="X124" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>3624</v>
+        <v>11014</v>
       </c>
     </row>
     <row r="125" spans="1:24" s="3" customFormat="1">
@@ -29134,7 +31589,7 @@
       </c>
       <c r="X125" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>16185</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="126" spans="1:24" s="3" customFormat="1">
@@ -29207,7 +31662,7 @@
       </c>
       <c r="X126" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>15366</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="127" spans="1:24" s="3" customFormat="1">
@@ -29280,7 +31735,7 @@
       </c>
       <c r="X127" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>14257</v>
+        <v>8710</v>
       </c>
     </row>
     <row r="128" spans="1:24" s="3" customFormat="1">
@@ -29353,7 +31808,7 @@
       </c>
       <c r="X128" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>21712</v>
+        <v>11777</v>
       </c>
     </row>
     <row r="129" spans="1:24" s="3" customFormat="1">
@@ -29426,7 +31881,7 @@
       </c>
       <c r="X129" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>2200</v>
+        <v>3829</v>
       </c>
     </row>
     <row r="130" spans="1:24" s="3" customFormat="1">
@@ -29499,7 +31954,7 @@
       </c>
       <c r="X130" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>9846</v>
+        <v>15576</v>
       </c>
     </row>
     <row r="131" spans="1:24" s="3" customFormat="1">
@@ -29572,7 +32027,7 @@
       </c>
       <c r="X131" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>19708</v>
+        <v>13112</v>
       </c>
     </row>
     <row r="132" spans="1:24" s="3" customFormat="1">
@@ -29645,7 +32100,7 @@
       </c>
       <c r="X132" s="3">
         <f t="shared" ref="X132:X195" ca="1" si="10">_xlfn.FLOOR.MATH($Z$3*RAND()) + $Y$3</f>
-        <v>19385</v>
+        <v>13493</v>
       </c>
     </row>
     <row r="133" spans="1:24" s="3" customFormat="1">
@@ -29718,7 +32173,7 @@
       </c>
       <c r="X133" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>6914</v>
+        <v>17751</v>
       </c>
     </row>
     <row r="134" spans="1:24" s="3" customFormat="1">
@@ -29791,7 +32246,7 @@
       </c>
       <c r="X134" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>10556</v>
+        <v>6389</v>
       </c>
     </row>
     <row r="135" spans="1:24" s="3" customFormat="1">
@@ -29864,7 +32319,7 @@
       </c>
       <c r="X135" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>11435</v>
+        <v>20031</v>
       </c>
     </row>
     <row r="136" spans="1:24" s="3" customFormat="1">
@@ -29937,7 +32392,7 @@
       </c>
       <c r="X136" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5294</v>
+        <v>14676</v>
       </c>
     </row>
     <row r="137" spans="1:24" s="3" customFormat="1">
@@ -30010,7 +32465,7 @@
       </c>
       <c r="X137" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>2725</v>
+        <v>9240</v>
       </c>
     </row>
     <row r="138" spans="1:24" s="3" customFormat="1">
@@ -30083,7 +32538,7 @@
       </c>
       <c r="X138" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>15184</v>
+        <v>17327</v>
       </c>
     </row>
     <row r="139" spans="1:24" s="3" customFormat="1">
@@ -30156,7 +32611,7 @@
       </c>
       <c r="X139" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>12454</v>
+        <v>16887</v>
       </c>
     </row>
     <row r="140" spans="1:24" s="3" customFormat="1">
@@ -30229,7 +32684,7 @@
       </c>
       <c r="X140" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>6799</v>
+        <v>14010</v>
       </c>
     </row>
     <row r="141" spans="1:24" s="3" customFormat="1">
@@ -30302,7 +32757,7 @@
       </c>
       <c r="X141" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>16313</v>
+        <v>4940</v>
       </c>
     </row>
     <row r="142" spans="1:24" s="3" customFormat="1">
@@ -30375,7 +32830,7 @@
       </c>
       <c r="X142" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5519</v>
+        <v>14908</v>
       </c>
     </row>
     <row r="143" spans="1:24" s="3" customFormat="1">
@@ -30448,7 +32903,7 @@
       </c>
       <c r="X143" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>9767</v>
+        <v>17881</v>
       </c>
     </row>
     <row r="144" spans="1:24" s="3" customFormat="1">
@@ -30521,7 +32976,7 @@
       </c>
       <c r="X144" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>2155</v>
+        <v>6373</v>
       </c>
     </row>
     <row r="145" spans="1:24" s="3" customFormat="1">
@@ -30594,7 +33049,7 @@
       </c>
       <c r="X145" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>16146</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="146" spans="1:24" s="3" customFormat="1">
@@ -30667,7 +33122,7 @@
       </c>
       <c r="X146" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>14200</v>
+        <v>6774</v>
       </c>
     </row>
     <row r="147" spans="1:24" s="3" customFormat="1">
@@ -30740,7 +33195,7 @@
       </c>
       <c r="X147" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>14413</v>
+        <v>10354</v>
       </c>
     </row>
     <row r="148" spans="1:24" s="3" customFormat="1">
@@ -30813,7 +33268,7 @@
       </c>
       <c r="X148" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>6896</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="149" spans="1:24" s="3" customFormat="1">
@@ -30886,7 +33341,7 @@
       </c>
       <c r="X149" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>18534</v>
+        <v>3555</v>
       </c>
     </row>
     <row r="150" spans="1:24" s="3" customFormat="1">
@@ -30959,7 +33414,7 @@
       </c>
       <c r="X150" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>6533</v>
+        <v>8046</v>
       </c>
     </row>
     <row r="151" spans="1:24" s="3" customFormat="1">
@@ -31032,7 +33487,7 @@
       </c>
       <c r="X151" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>15581</v>
+        <v>8541</v>
       </c>
     </row>
     <row r="152" spans="1:24" s="3" customFormat="1">
@@ -31105,7 +33560,7 @@
       </c>
       <c r="X152" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>13451</v>
+        <v>3731</v>
       </c>
     </row>
     <row r="153" spans="1:24" s="3" customFormat="1">
@@ -31178,7 +33633,7 @@
       </c>
       <c r="X153" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>16719</v>
+        <v>17261</v>
       </c>
     </row>
     <row r="154" spans="1:24" s="3" customFormat="1">
@@ -31251,7 +33706,7 @@
       </c>
       <c r="X154" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>3180</v>
+        <v>15805</v>
       </c>
     </row>
     <row r="155" spans="1:24" s="3" customFormat="1">
@@ -31324,7 +33779,7 @@
       </c>
       <c r="X155" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>8539</v>
+        <v>20331</v>
       </c>
     </row>
     <row r="156" spans="1:24" s="3" customFormat="1">
@@ -31397,7 +33852,7 @@
       </c>
       <c r="X156" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>15802</v>
+        <v>12678</v>
       </c>
     </row>
     <row r="157" spans="1:24" s="3" customFormat="1">
@@ -31470,7 +33925,7 @@
       </c>
       <c r="X157" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>17312</v>
+        <v>5844</v>
       </c>
     </row>
     <row r="158" spans="1:24" s="3" customFormat="1">
@@ -31543,7 +33998,7 @@
       </c>
       <c r="X158" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>10270</v>
+        <v>13233</v>
       </c>
     </row>
     <row r="159" spans="1:24" s="3" customFormat="1">
@@ -31616,7 +34071,7 @@
       </c>
       <c r="X159" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>14451</v>
+        <v>13277</v>
       </c>
     </row>
     <row r="160" spans="1:24" s="3" customFormat="1">
@@ -31689,7 +34144,7 @@
       </c>
       <c r="X160" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>14465</v>
+        <v>14873</v>
       </c>
     </row>
     <row r="161" spans="1:24" s="3" customFormat="1">
@@ -31762,7 +34217,7 @@
       </c>
       <c r="X161" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>8171</v>
+        <v>12506</v>
       </c>
     </row>
     <row r="162" spans="1:24" s="3" customFormat="1">
@@ -31835,7 +34290,7 @@
       </c>
       <c r="X162" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>16732</v>
+        <v>21571</v>
       </c>
     </row>
     <row r="163" spans="1:24" s="3" customFormat="1">
@@ -31908,7 +34363,7 @@
       </c>
       <c r="X163" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>13920</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="164" spans="1:24" s="3" customFormat="1">
@@ -31981,7 +34436,7 @@
       </c>
       <c r="X164" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>14913</v>
+        <v>16427</v>
       </c>
     </row>
     <row r="165" spans="1:24" s="3" customFormat="1">
@@ -32054,7 +34509,7 @@
       </c>
       <c r="X165" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>3547</v>
+        <v>5149</v>
       </c>
     </row>
     <row r="166" spans="1:24" s="3" customFormat="1">
@@ -32127,7 +34582,7 @@
       </c>
       <c r="X166" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>21047</v>
+        <v>5895</v>
       </c>
     </row>
     <row r="167" spans="1:24" s="3" customFormat="1">
@@ -32200,7 +34655,7 @@
       </c>
       <c r="X167" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>12851</v>
+        <v>7174</v>
       </c>
     </row>
     <row r="168" spans="1:24" s="3" customFormat="1">
@@ -32273,7 +34728,7 @@
       </c>
       <c r="X168" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>17375</v>
+        <v>20468</v>
       </c>
     </row>
     <row r="169" spans="1:24" s="3" customFormat="1">
@@ -32346,7 +34801,7 @@
       </c>
       <c r="X169" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>10536</v>
+        <v>17237</v>
       </c>
     </row>
     <row r="170" spans="1:24" s="3" customFormat="1">
@@ -32419,7 +34874,7 @@
       </c>
       <c r="X170" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>11178</v>
+        <v>21354</v>
       </c>
     </row>
     <row r="171" spans="1:24" s="3" customFormat="1">
@@ -32492,7 +34947,7 @@
       </c>
       <c r="X171" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>17399</v>
+        <v>8550</v>
       </c>
     </row>
     <row r="172" spans="1:24" s="3" customFormat="1">
@@ -32565,7 +35020,7 @@
       </c>
       <c r="X172" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5632</v>
+        <v>17944</v>
       </c>
     </row>
     <row r="173" spans="1:24" s="3" customFormat="1">
@@ -32638,7 +35093,7 @@
       </c>
       <c r="X173" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>7767</v>
+        <v>18466</v>
       </c>
     </row>
     <row r="174" spans="1:24" s="3" customFormat="1">
@@ -32711,7 +35166,7 @@
       </c>
       <c r="X174" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>7145</v>
+        <v>4175</v>
       </c>
     </row>
     <row r="175" spans="1:24" s="3" customFormat="1">
@@ -32784,7 +35239,7 @@
       </c>
       <c r="X175" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>10946</v>
+        <v>3142</v>
       </c>
     </row>
     <row r="176" spans="1:24" s="3" customFormat="1">
@@ -32857,7 +35312,7 @@
       </c>
       <c r="X176" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>13865</v>
+        <v>4525</v>
       </c>
     </row>
     <row r="177" spans="1:24" s="3" customFormat="1">
@@ -32930,7 +35385,7 @@
       </c>
       <c r="X177" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>8954</v>
+        <v>21292</v>
       </c>
     </row>
     <row r="178" spans="1:24" s="3" customFormat="1">
@@ -33003,7 +35458,7 @@
       </c>
       <c r="X178" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>3252</v>
+        <v>21292</v>
       </c>
     </row>
     <row r="179" spans="1:24" s="3" customFormat="1">
@@ -33076,7 +35531,7 @@
       </c>
       <c r="X179" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4186</v>
+        <v>15531</v>
       </c>
     </row>
     <row r="180" spans="1:24" s="3" customFormat="1">
@@ -33149,7 +35604,7 @@
       </c>
       <c r="X180" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>20738</v>
+        <v>7968</v>
       </c>
     </row>
     <row r="181" spans="1:24" s="3" customFormat="1">
@@ -33222,7 +35677,7 @@
       </c>
       <c r="X181" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>13275</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="182" spans="1:24" s="3" customFormat="1">
@@ -33295,7 +35750,7 @@
       </c>
       <c r="X182" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>7867</v>
+        <v>18530</v>
       </c>
     </row>
     <row r="183" spans="1:24" s="3" customFormat="1">
@@ -33368,7 +35823,7 @@
       </c>
       <c r="X183" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>13567</v>
+        <v>3944</v>
       </c>
     </row>
     <row r="184" spans="1:24" s="3" customFormat="1">
@@ -33441,7 +35896,7 @@
       </c>
       <c r="X184" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>20730</v>
+        <v>16440</v>
       </c>
     </row>
     <row r="185" spans="1:24" s="3" customFormat="1">
@@ -33514,7 +35969,7 @@
       </c>
       <c r="X185" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>21537</v>
+        <v>13796</v>
       </c>
     </row>
     <row r="186" spans="1:24" s="3" customFormat="1">
@@ -33587,7 +36042,7 @@
       </c>
       <c r="X186" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>13547</v>
+        <v>21645</v>
       </c>
     </row>
     <row r="187" spans="1:24" s="3" customFormat="1">
@@ -33660,7 +36115,7 @@
       </c>
       <c r="X187" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>11837</v>
+        <v>21198</v>
       </c>
     </row>
     <row r="188" spans="1:24" s="3" customFormat="1">
@@ -33733,7 +36188,7 @@
       </c>
       <c r="X188" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4941</v>
+        <v>9084</v>
       </c>
     </row>
     <row r="189" spans="1:24" s="3" customFormat="1">
@@ -33806,7 +36261,7 @@
       </c>
       <c r="X189" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>14773</v>
+        <v>11005</v>
       </c>
     </row>
     <row r="190" spans="1:24" s="3" customFormat="1">
@@ -33879,7 +36334,7 @@
       </c>
       <c r="X190" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>8168</v>
+        <v>9062</v>
       </c>
     </row>
     <row r="191" spans="1:24" s="3" customFormat="1">
@@ -33952,7 +36407,7 @@
       </c>
       <c r="X191" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>16825</v>
+        <v>15456</v>
       </c>
     </row>
     <row r="192" spans="1:24" s="3" customFormat="1">
@@ -34025,7 +36480,7 @@
       </c>
       <c r="X192" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>21976</v>
+        <v>3053</v>
       </c>
     </row>
     <row r="193" spans="1:24" s="3" customFormat="1">
@@ -34098,7 +36553,7 @@
       </c>
       <c r="X193" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>12054</v>
+        <v>15303</v>
       </c>
     </row>
     <row r="194" spans="1:24" s="3" customFormat="1">
@@ -34171,7 +36626,7 @@
       </c>
       <c r="X194" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>19425</v>
+        <v>15694</v>
       </c>
     </row>
     <row r="195" spans="1:24" s="3" customFormat="1">
@@ -34244,7 +36699,7 @@
       </c>
       <c r="X195" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>19417</v>
+        <v>8334</v>
       </c>
     </row>
     <row r="196" spans="1:24" s="3" customFormat="1">
@@ -34317,7 +36772,7 @@
       </c>
       <c r="X196" s="3">
         <f t="shared" ref="X196:X259" ca="1" si="15">_xlfn.FLOOR.MATH($Z$3*RAND()) + $Y$3</f>
-        <v>18673</v>
+        <v>10022</v>
       </c>
     </row>
     <row r="197" spans="1:24" s="3" customFormat="1">
@@ -34390,7 +36845,7 @@
       </c>
       <c r="X197" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>9312</v>
+        <v>5479</v>
       </c>
     </row>
     <row r="198" spans="1:24" s="3" customFormat="1">
@@ -34463,7 +36918,7 @@
       </c>
       <c r="X198" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>15997</v>
+        <v>17269</v>
       </c>
     </row>
     <row r="199" spans="1:24" s="3" customFormat="1">
@@ -34536,7 +36991,7 @@
       </c>
       <c r="X199" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>10726</v>
+        <v>9767</v>
       </c>
     </row>
     <row r="200" spans="1:24" s="3" customFormat="1">
@@ -34609,7 +37064,7 @@
       </c>
       <c r="X200" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>18041</v>
+        <v>11474</v>
       </c>
     </row>
     <row r="201" spans="1:24" s="3" customFormat="1">
@@ -34682,7 +37137,7 @@
       </c>
       <c r="X201" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>21715</v>
+        <v>16243</v>
       </c>
     </row>
     <row r="202" spans="1:24" s="3" customFormat="1">
@@ -34755,7 +37210,7 @@
       </c>
       <c r="X202" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>5148</v>
+        <v>20084</v>
       </c>
     </row>
     <row r="203" spans="1:24" s="3" customFormat="1">
@@ -34828,7 +37283,7 @@
       </c>
       <c r="X203" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>8789</v>
+        <v>20346</v>
       </c>
     </row>
     <row r="204" spans="1:24" s="3" customFormat="1">
@@ -34901,7 +37356,7 @@
       </c>
       <c r="X204" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>13571</v>
+        <v>3463</v>
       </c>
     </row>
     <row r="205" spans="1:24" s="3" customFormat="1">
@@ -34974,7 +37429,7 @@
       </c>
       <c r="X205" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>18310</v>
+        <v>13826</v>
       </c>
     </row>
     <row r="206" spans="1:24" s="3" customFormat="1">
@@ -35047,7 +37502,7 @@
       </c>
       <c r="X206" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>5631</v>
+        <v>9048</v>
       </c>
     </row>
     <row r="207" spans="1:24" s="3" customFormat="1">
@@ -35120,7 +37575,7 @@
       </c>
       <c r="X207" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>16507</v>
+        <v>21967</v>
       </c>
     </row>
     <row r="208" spans="1:24" s="3" customFormat="1">
@@ -35193,7 +37648,7 @@
       </c>
       <c r="X208" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>18323</v>
+        <v>15108</v>
       </c>
     </row>
     <row r="209" spans="1:24" s="3" customFormat="1">
@@ -35266,7 +37721,7 @@
       </c>
       <c r="X209" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>2216</v>
+        <v>6322</v>
       </c>
     </row>
     <row r="210" spans="1:24" s="3" customFormat="1">
@@ -35339,7 +37794,7 @@
       </c>
       <c r="X210" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>5395</v>
+        <v>3323</v>
       </c>
     </row>
     <row r="211" spans="1:24" s="3" customFormat="1">
@@ -35412,7 +37867,7 @@
       </c>
       <c r="X211" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>15982</v>
+        <v>21132</v>
       </c>
     </row>
     <row r="212" spans="1:24" s="3" customFormat="1">
@@ -35485,7 +37940,7 @@
       </c>
       <c r="X212" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>2536</v>
+        <v>12871</v>
       </c>
     </row>
     <row r="213" spans="1:24" s="3" customFormat="1">
@@ -35558,7 +38013,7 @@
       </c>
       <c r="X213" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>3486</v>
+        <v>12262</v>
       </c>
     </row>
     <row r="214" spans="1:24" s="3" customFormat="1">
@@ -35631,7 +38086,7 @@
       </c>
       <c r="X214" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>17839</v>
+        <v>20854</v>
       </c>
     </row>
     <row r="215" spans="1:24" s="3" customFormat="1">
@@ -35704,7 +38159,7 @@
       </c>
       <c r="X215" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>10370</v>
+        <v>21803</v>
       </c>
     </row>
     <row r="216" spans="1:24" s="3" customFormat="1">
@@ -35777,7 +38232,7 @@
       </c>
       <c r="X216" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>11823</v>
+        <v>11460</v>
       </c>
     </row>
     <row r="217" spans="1:24" s="3" customFormat="1">
@@ -35850,7 +38305,7 @@
       </c>
       <c r="X217" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>3117</v>
+        <v>14124</v>
       </c>
     </row>
     <row r="218" spans="1:24" s="3" customFormat="1">
@@ -35923,7 +38378,7 @@
       </c>
       <c r="X218" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>20347</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="219" spans="1:24" s="3" customFormat="1">
@@ -35996,7 +38451,7 @@
       </c>
       <c r="X219" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>6469</v>
+        <v>16502</v>
       </c>
     </row>
     <row r="220" spans="1:24" s="3" customFormat="1">
@@ -36069,7 +38524,7 @@
       </c>
       <c r="X220" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>4178</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="221" spans="1:24" s="3" customFormat="1">
@@ -36142,7 +38597,7 @@
       </c>
       <c r="X221" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>21418</v>
+        <v>10509</v>
       </c>
     </row>
     <row r="222" spans="1:24" s="3" customFormat="1">
@@ -36215,7 +38670,7 @@
       </c>
       <c r="X222" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>11262</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="223" spans="1:24" s="3" customFormat="1">
@@ -36288,7 +38743,7 @@
       </c>
       <c r="X223" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>21056</v>
+        <v>4140</v>
       </c>
     </row>
     <row r="224" spans="1:24" s="3" customFormat="1">
@@ -36361,7 +38816,7 @@
       </c>
       <c r="X224" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>9404</v>
+        <v>3704</v>
       </c>
     </row>
     <row r="225" spans="1:24" s="3" customFormat="1">
@@ -36434,7 +38889,7 @@
       </c>
       <c r="X225" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>11386</v>
+        <v>17744</v>
       </c>
     </row>
     <row r="226" spans="1:24" s="3" customFormat="1">
@@ -36507,7 +38962,7 @@
       </c>
       <c r="X226" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>2802</v>
+        <v>21578</v>
       </c>
     </row>
     <row r="227" spans="1:24" s="3" customFormat="1">
@@ -36580,7 +39035,7 @@
       </c>
       <c r="X227" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>17801</v>
+        <v>17123</v>
       </c>
     </row>
     <row r="228" spans="1:24" s="3" customFormat="1">
@@ -36653,7 +39108,7 @@
       </c>
       <c r="X228" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>10121</v>
+        <v>15480</v>
       </c>
     </row>
     <row r="229" spans="1:24" s="3" customFormat="1">
@@ -36726,7 +39181,7 @@
       </c>
       <c r="X229" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>19520</v>
+        <v>10537</v>
       </c>
     </row>
     <row r="230" spans="1:24" s="3" customFormat="1">
@@ -36799,7 +39254,7 @@
       </c>
       <c r="X230" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>16850</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="231" spans="1:24" s="3" customFormat="1">
@@ -36872,7 +39327,7 @@
       </c>
       <c r="X231" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>8607</v>
+        <v>20781</v>
       </c>
     </row>
     <row r="232" spans="1:24" s="3" customFormat="1">
@@ -36945,7 +39400,7 @@
       </c>
       <c r="X232" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>6648</v>
+        <v>5772</v>
       </c>
     </row>
     <row r="233" spans="1:24" s="3" customFormat="1">
@@ -37018,7 +39473,7 @@
       </c>
       <c r="X233" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>21489</v>
+        <v>8418</v>
       </c>
     </row>
     <row r="234" spans="1:24" s="3" customFormat="1">
@@ -37091,7 +39546,7 @@
       </c>
       <c r="X234" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>7966</v>
+        <v>20969</v>
       </c>
     </row>
     <row r="235" spans="1:24" s="3" customFormat="1">
@@ -37164,7 +39619,7 @@
       </c>
       <c r="X235" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>11791</v>
+        <v>7830</v>
       </c>
     </row>
     <row r="236" spans="1:24" s="3" customFormat="1">
@@ -37237,7 +39692,7 @@
       </c>
       <c r="X236" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>5163</v>
+        <v>6088</v>
       </c>
     </row>
     <row r="237" spans="1:24" s="3" customFormat="1">
@@ -37310,7 +39765,7 @@
       </c>
       <c r="X237" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>3994</v>
+        <v>10133</v>
       </c>
     </row>
     <row r="238" spans="1:24" s="3" customFormat="1">
@@ -37383,7 +39838,7 @@
       </c>
       <c r="X238" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>11195</v>
+        <v>20368</v>
       </c>
     </row>
     <row r="239" spans="1:24" s="3" customFormat="1">
@@ -37456,7 +39911,7 @@
       </c>
       <c r="X239" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>21553</v>
+        <v>12622</v>
       </c>
     </row>
     <row r="240" spans="1:24" s="3" customFormat="1">
@@ -37529,7 +39984,7 @@
       </c>
       <c r="X240" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>21403</v>
+        <v>8566</v>
       </c>
     </row>
     <row r="241" spans="1:24" s="3" customFormat="1">
@@ -37602,7 +40057,7 @@
       </c>
       <c r="X241" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>15675</v>
+        <v>10060</v>
       </c>
     </row>
     <row r="242" spans="1:24" s="3" customFormat="1">
@@ -37675,7 +40130,7 @@
       </c>
       <c r="X242" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>6273</v>
+        <v>6604</v>
       </c>
     </row>
     <row r="243" spans="1:24" s="3" customFormat="1">
@@ -37748,7 +40203,7 @@
       </c>
       <c r="X243" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>4875</v>
+        <v>4586</v>
       </c>
     </row>
     <row r="244" spans="1:24" s="3" customFormat="1">
@@ -37821,7 +40276,7 @@
       </c>
       <c r="X244" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>15456</v>
+        <v>19625</v>
       </c>
     </row>
     <row r="245" spans="1:24" s="3" customFormat="1">
@@ -37894,7 +40349,7 @@
       </c>
       <c r="X245" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>20046</v>
+        <v>19214</v>
       </c>
     </row>
     <row r="246" spans="1:24" s="3" customFormat="1">
@@ -37967,7 +40422,7 @@
       </c>
       <c r="X246" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>7932</v>
+        <v>9530</v>
       </c>
     </row>
     <row r="247" spans="1:24" s="3" customFormat="1">
@@ -38040,7 +40495,7 @@
       </c>
       <c r="X247" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>4128</v>
+        <v>16872</v>
       </c>
     </row>
     <row r="248" spans="1:24" s="3" customFormat="1">
@@ -38113,7 +40568,7 @@
       </c>
       <c r="X248" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>19519</v>
+        <v>5468</v>
       </c>
     </row>
     <row r="249" spans="1:24" s="3" customFormat="1">
@@ -38186,7 +40641,7 @@
       </c>
       <c r="X249" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>8131</v>
+        <v>14287</v>
       </c>
     </row>
     <row r="250" spans="1:24" s="3" customFormat="1">
@@ -38259,7 +40714,7 @@
       </c>
       <c r="X250" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>10402</v>
+        <v>12642</v>
       </c>
     </row>
     <row r="251" spans="1:24" s="3" customFormat="1">
@@ -38332,7 +40787,7 @@
       </c>
       <c r="X251" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>20144</v>
+        <v>4045</v>
       </c>
     </row>
     <row r="252" spans="1:24" s="3" customFormat="1">
@@ -38405,7 +40860,7 @@
       </c>
       <c r="X252" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>15950</v>
+        <v>16292</v>
       </c>
     </row>
     <row r="253" spans="1:24" s="3" customFormat="1">
@@ -38478,7 +40933,7 @@
       </c>
       <c r="X253" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>13499</v>
+        <v>6769</v>
       </c>
     </row>
     <row r="254" spans="1:24" s="3" customFormat="1">
@@ -38551,7 +41006,7 @@
       </c>
       <c r="X254" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>12376</v>
+        <v>14609</v>
       </c>
     </row>
     <row r="255" spans="1:24" s="3" customFormat="1">
@@ -38624,7 +41079,7 @@
       </c>
       <c r="X255" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>16369</v>
+        <v>15225</v>
       </c>
     </row>
     <row r="256" spans="1:24" s="3" customFormat="1">
@@ -38697,7 +41152,7 @@
       </c>
       <c r="X256" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>4297</v>
+        <v>12621</v>
       </c>
     </row>
     <row r="257" spans="1:24" s="3" customFormat="1">
@@ -38770,7 +41225,7 @@
       </c>
       <c r="X257" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>13274</v>
+        <v>19564</v>
       </c>
     </row>
     <row r="258" spans="1:24" s="3" customFormat="1">
@@ -38843,7 +41298,7 @@
       </c>
       <c r="X258" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>14820</v>
+        <v>21134</v>
       </c>
     </row>
     <row r="259" spans="1:24" s="3" customFormat="1">
@@ -38916,7 +41371,7 @@
       </c>
       <c r="X259" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>2993</v>
+        <v>5347</v>
       </c>
     </row>
     <row r="260" spans="1:24" s="3" customFormat="1">
@@ -38989,7 +41444,7 @@
       </c>
       <c r="X260" s="3">
         <f t="shared" ref="X260:X309" ca="1" si="20">_xlfn.FLOOR.MATH($Z$3*RAND()) + $Y$3</f>
-        <v>20978</v>
+        <v>8438</v>
       </c>
     </row>
     <row r="261" spans="1:24" s="3" customFormat="1">
@@ -39062,7 +41517,7 @@
       </c>
       <c r="X261" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>21857</v>
+        <v>7256</v>
       </c>
     </row>
     <row r="262" spans="1:24" s="3" customFormat="1">
@@ -39135,7 +41590,7 @@
       </c>
       <c r="X262" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>12456</v>
+        <v>4354</v>
       </c>
     </row>
     <row r="263" spans="1:24" s="3" customFormat="1">
@@ -39208,7 +41663,7 @@
       </c>
       <c r="X263" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>13665</v>
+        <v>6736</v>
       </c>
     </row>
     <row r="264" spans="1:24" s="3" customFormat="1">
@@ -39281,7 +41736,7 @@
       </c>
       <c r="X264" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>13255</v>
+        <v>6677</v>
       </c>
     </row>
     <row r="265" spans="1:24" s="3" customFormat="1">
@@ -39354,7 +41809,7 @@
       </c>
       <c r="X265" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>4411</v>
+        <v>7496</v>
       </c>
     </row>
     <row r="266" spans="1:24" s="3" customFormat="1">
@@ -39427,7 +41882,7 @@
       </c>
       <c r="X266" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>15543</v>
+        <v>10608</v>
       </c>
     </row>
     <row r="267" spans="1:24" s="3" customFormat="1">
@@ -39500,7 +41955,7 @@
       </c>
       <c r="X267" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>15061</v>
+        <v>7327</v>
       </c>
     </row>
     <row r="268" spans="1:24" s="3" customFormat="1">
@@ -39573,7 +42028,7 @@
       </c>
       <c r="X268" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>19790</v>
+        <v>20763</v>
       </c>
     </row>
     <row r="269" spans="1:24" s="3" customFormat="1">
@@ -39646,7 +42101,7 @@
       </c>
       <c r="X269" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>21281</v>
+        <v>16245</v>
       </c>
     </row>
     <row r="270" spans="1:24" s="3" customFormat="1">
@@ -39719,7 +42174,7 @@
       </c>
       <c r="X270" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>13666</v>
+        <v>14552</v>
       </c>
     </row>
     <row r="271" spans="1:24" s="3" customFormat="1">
@@ -39792,7 +42247,7 @@
       </c>
       <c r="X271" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>10428</v>
+        <v>12688</v>
       </c>
     </row>
     <row r="272" spans="1:24" s="3" customFormat="1">
@@ -39865,7 +42320,7 @@
       </c>
       <c r="X272" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>13567</v>
+        <v>19508</v>
       </c>
     </row>
     <row r="273" spans="1:24" s="3" customFormat="1">
@@ -39938,7 +42393,7 @@
       </c>
       <c r="X273" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>11913</v>
+        <v>19188</v>
       </c>
     </row>
     <row r="274" spans="1:24" s="3" customFormat="1">
@@ -40011,7 +42466,7 @@
       </c>
       <c r="X274" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>14434</v>
+        <v>11141</v>
       </c>
     </row>
     <row r="275" spans="1:24" s="3" customFormat="1">
@@ -40084,7 +42539,7 @@
       </c>
       <c r="X275" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>14735</v>
+        <v>11344</v>
       </c>
     </row>
     <row r="276" spans="1:24" s="3" customFormat="1">
@@ -40157,7 +42612,7 @@
       </c>
       <c r="X276" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>3707</v>
+        <v>6150</v>
       </c>
     </row>
     <row r="277" spans="1:24" s="3" customFormat="1">
@@ -40230,7 +42685,7 @@
       </c>
       <c r="X277" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>4797</v>
+        <v>10941</v>
       </c>
     </row>
     <row r="278" spans="1:24" s="3" customFormat="1">
@@ -40303,7 +42758,7 @@
       </c>
       <c r="X278" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>6732</v>
+        <v>5868</v>
       </c>
     </row>
     <row r="279" spans="1:24" s="3" customFormat="1">
@@ -40376,7 +42831,7 @@
       </c>
       <c r="X279" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>5782</v>
+        <v>20419</v>
       </c>
     </row>
     <row r="280" spans="1:24" s="3" customFormat="1">
@@ -40449,7 +42904,7 @@
       </c>
       <c r="X280" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>18043</v>
+        <v>14806</v>
       </c>
     </row>
     <row r="281" spans="1:24" s="3" customFormat="1">
@@ -40522,7 +42977,7 @@
       </c>
       <c r="X281" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>12812</v>
+        <v>10161</v>
       </c>
     </row>
     <row r="282" spans="1:24" s="3" customFormat="1">
@@ -40595,7 +43050,7 @@
       </c>
       <c r="X282" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>13782</v>
+        <v>11595</v>
       </c>
     </row>
     <row r="283" spans="1:24" s="3" customFormat="1">
@@ -40668,7 +43123,7 @@
       </c>
       <c r="X283" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>10735</v>
+        <v>13846</v>
       </c>
     </row>
     <row r="284" spans="1:24" s="3" customFormat="1">
@@ -40741,7 +43196,7 @@
       </c>
       <c r="X284" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>20234</v>
+        <v>19897</v>
       </c>
     </row>
     <row r="285" spans="1:24" s="3" customFormat="1">
@@ -40814,7 +43269,7 @@
       </c>
       <c r="X285" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>20685</v>
+        <v>5111</v>
       </c>
     </row>
     <row r="286" spans="1:24" s="3" customFormat="1">
@@ -40887,7 +43342,7 @@
       </c>
       <c r="X286" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>9094</v>
+        <v>17298</v>
       </c>
     </row>
     <row r="287" spans="1:24" s="3" customFormat="1">
@@ -40960,7 +43415,7 @@
       </c>
       <c r="X287" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>20577</v>
+        <v>14374</v>
       </c>
     </row>
     <row r="288" spans="1:24" s="3" customFormat="1">
@@ -41033,7 +43488,7 @@
       </c>
       <c r="X288" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>18313</v>
+        <v>17181</v>
       </c>
     </row>
     <row r="289" spans="1:24" s="3" customFormat="1">
@@ -41106,7 +43561,7 @@
       </c>
       <c r="X289" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>10839</v>
+        <v>8839</v>
       </c>
     </row>
     <row r="290" spans="1:24" s="3" customFormat="1">
@@ -41179,7 +43634,7 @@
       </c>
       <c r="X290" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>3207</v>
+        <v>13879</v>
       </c>
     </row>
     <row r="291" spans="1:24" s="3" customFormat="1">
@@ -41252,7 +43707,7 @@
       </c>
       <c r="X291" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>15078</v>
+        <v>6961</v>
       </c>
     </row>
     <row r="292" spans="1:24" s="3" customFormat="1">
@@ -41325,7 +43780,7 @@
       </c>
       <c r="X292" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>10071</v>
+        <v>13453</v>
       </c>
     </row>
     <row r="293" spans="1:24" s="3" customFormat="1">
@@ -41398,7 +43853,7 @@
       </c>
       <c r="X293" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>11154</v>
+        <v>13002</v>
       </c>
     </row>
     <row r="294" spans="1:24" s="3" customFormat="1">
@@ -41471,7 +43926,7 @@
       </c>
       <c r="X294" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>21321</v>
+        <v>6190</v>
       </c>
     </row>
     <row r="295" spans="1:24" s="3" customFormat="1">
@@ -41544,7 +43999,7 @@
       </c>
       <c r="X295" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>14800</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="296" spans="1:24" s="3" customFormat="1">
@@ -41617,7 +44072,7 @@
       </c>
       <c r="X296" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>9781</v>
+        <v>8516</v>
       </c>
     </row>
     <row r="297" spans="1:24" s="3" customFormat="1">
@@ -41690,7 +44145,7 @@
       </c>
       <c r="X297" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>8387</v>
+        <v>4878</v>
       </c>
     </row>
     <row r="298" spans="1:24" s="3" customFormat="1">
@@ -41763,7 +44218,7 @@
       </c>
       <c r="X298" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>18706</v>
+        <v>13112</v>
       </c>
     </row>
     <row r="299" spans="1:24" s="3" customFormat="1">
@@ -41836,7 +44291,7 @@
       </c>
       <c r="X299" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>19412</v>
+        <v>9055</v>
       </c>
     </row>
     <row r="300" spans="1:24" s="3" customFormat="1">
@@ -41909,7 +44364,7 @@
       </c>
       <c r="X300" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>2658</v>
+        <v>13455</v>
       </c>
     </row>
     <row r="301" spans="1:24" s="3" customFormat="1">
@@ -41982,7 +44437,7 @@
       </c>
       <c r="X301" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>20640</v>
+        <v>14534</v>
       </c>
     </row>
     <row r="302" spans="1:24" s="3" customFormat="1">
@@ -42055,7 +44510,7 @@
       </c>
       <c r="X302" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>17566</v>
+        <v>15125</v>
       </c>
     </row>
     <row r="303" spans="1:24" s="3" customFormat="1">
@@ -42128,7 +44583,7 @@
       </c>
       <c r="X303" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>15551</v>
+        <v>8379</v>
       </c>
     </row>
     <row r="304" spans="1:24" s="3" customFormat="1">
@@ -42201,7 +44656,7 @@
       </c>
       <c r="X304" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>13456</v>
+        <v>6410</v>
       </c>
     </row>
     <row r="305" spans="1:24" s="3" customFormat="1">
@@ -42274,7 +44729,7 @@
       </c>
       <c r="X305" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>7518</v>
+        <v>10879</v>
       </c>
     </row>
     <row r="306" spans="1:24" s="3" customFormat="1">
@@ -42347,7 +44802,7 @@
       </c>
       <c r="X306" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>6885</v>
+        <v>17504</v>
       </c>
     </row>
     <row r="307" spans="1:24" s="3" customFormat="1">
@@ -42420,7 +44875,7 @@
       </c>
       <c r="X307" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>12605</v>
+        <v>5908</v>
       </c>
     </row>
     <row r="308" spans="1:24" s="3" customFormat="1">
@@ -42493,7 +44948,7 @@
       </c>
       <c r="X308" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>7766</v>
+        <v>5140</v>
       </c>
     </row>
     <row r="309" spans="1:24" s="3" customFormat="1">
@@ -42566,7 +45021,7 @@
       </c>
       <c r="X309" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>13583</v>
+        <v>16143</v>
       </c>
     </row>
     <row r="310" spans="1:24">
@@ -42788,10 +45243,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D7480B-14BF-FF43-BA8D-E2D66A45CF1E}">
-  <dimension ref="A1:L3464"/>
+  <dimension ref="A1:N3464"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="166" zoomScaleNormal="327" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView zoomScale="137" zoomScaleNormal="327" workbookViewId="0">
+      <selection activeCell="K181" sqref="K181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -42802,12 +45257,12 @@
     <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18">
+    <row r="1" spans="1:14" ht="18">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
@@ -42821,7 +45276,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>1</v>
       </c>
@@ -42846,7 +45301,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>2</v>
       </c>
@@ -42873,7 +45328,7 @@
       </c>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>3</v>
       </c>
@@ -42903,7 +45358,7 @@
         <v>19.202321431231496</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>4</v>
       </c>
@@ -42929,11 +45384,11 @@
         <v>2.1720000000000002</v>
       </c>
       <c r="L5" s="8">
-        <f>MIN(D2:D270)</f>
-        <v>0.80574192869912709</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <f>SMALL(D2:D270,2)</f>
+        <v>15.008261211644378</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>5</v>
       </c>
@@ -42963,7 +45418,7 @@
         <v>16.670978870202674</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>6</v>
       </c>
@@ -42993,7 +45448,7 @@
         <v>17.017155756207675</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>8</v>
       </c>
@@ -43023,7 +45478,7 @@
         <v>18.201935483870969</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>10</v>
       </c>
@@ -43041,19 +45496,19 @@
         <v>32</v>
       </c>
       <c r="J9" s="1">
-        <f>MAX(B2:B270)</f>
-        <v>261.79000000000002</v>
+        <f>LARGE(B2:B270,3)</f>
+        <v>136.935</v>
       </c>
       <c r="K9" s="1">
-        <f>MAX(C2:C270)</f>
-        <v>47.545000000000002</v>
+        <f>LARGE(C2:C270,2)</f>
+        <v>13.32</v>
       </c>
       <c r="L9" s="8">
         <f>MAX(D2:D270)</f>
         <v>53.502963417126516</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>11</v>
       </c>
@@ -43070,7 +45525,7 @@
       <c r="J10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>12</v>
       </c>
@@ -43086,7 +45541,7 @@
       </c>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>13</v>
       </c>
@@ -43102,7 +45557,7 @@
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>14</v>
       </c>
@@ -43118,7 +45573,7 @@
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>16</v>
       </c>
@@ -43142,7 +45597,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>17</v>
       </c>
@@ -43169,10 +45624,10 @@
       </c>
       <c r="L15" s="1">
         <f>L5</f>
-        <v>0.80574192869912709</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>15.008261211644378</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>19</v>
       </c>
@@ -43199,10 +45654,11 @@
       </c>
       <c r="L16" s="1">
         <f>(L6-L5)</f>
-        <v>15.865236941503547</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>1.6627176585582966</v>
+      </c>
+      <c r="N16" s="14"/>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17">
         <v>20</v>
       </c>
@@ -43231,8 +45687,9 @@
         <f t="shared" ref="L17:L19" si="1">(L7-L6)</f>
         <v>0.34617688600500074</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="N17" s="14"/>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18">
         <v>21</v>
       </c>
@@ -43261,8 +45718,9 @@
         <f t="shared" si="1"/>
         <v>1.1847797276632939</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="N18" s="14"/>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19">
         <v>22</v>
       </c>
@@ -43281,18 +45739,19 @@
       </c>
       <c r="J19" s="1">
         <f t="shared" si="0"/>
-        <v>218.23800000000003</v>
+        <v>93.38300000000001</v>
       </c>
       <c r="K19" s="1">
         <f t="shared" si="0"/>
-        <v>44.983499999999999</v>
+        <v>10.758500000000002</v>
       </c>
       <c r="L19" s="1">
         <f t="shared" si="1"/>
         <v>35.301027933255547</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="N19" s="14"/>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20">
         <v>23</v>
       </c>
@@ -43306,6 +45765,9 @@
         <f>IF(OR(B20="-",C20="-"), "-", B20/C20)</f>
         <v>39.789971228935471</v>
       </c>
+      <c r="I20" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -43316,7 +45778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:14">
       <c r="A21">
         <v>24</v>
       </c>
@@ -43333,7 +45795,7 @@
       <c r="J21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:14">
       <c r="A22">
         <v>25</v>
       </c>
@@ -43347,10 +45809,23 @@
         <f>IF(OR(B22="-",C22="-"), "-", B22/C22)</f>
         <v>-</v>
       </c>
-      <c r="J22" s="3"/>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="I22" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J22" s="14">
+        <f t="shared" ref="J22:K22" si="2">SMALL(B$2:B$270,1)</f>
+        <v>37.375999999999998</v>
+      </c>
+      <c r="K22" s="14">
+        <f t="shared" si="2"/>
+        <v>2.1720000000000002</v>
+      </c>
+      <c r="L22" s="14">
+        <f>SMALL(D$2:D$270,1)</f>
+        <v>0.80574192869912709</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23">
         <v>26</v>
       </c>
@@ -43364,10 +45839,23 @@
         <f>IF(OR(B23="-",C23="-"), "-", B23/C23)</f>
         <v>17.104207628784899</v>
       </c>
-      <c r="J23" s="3"/>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="I23" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J23" s="14">
+        <f t="shared" ref="J23:K23" si="3">SMALL(B$2:B$270,2)</f>
+        <v>37.384</v>
+      </c>
+      <c r="K23" s="14">
+        <f t="shared" si="3"/>
+        <v>2.1760000000000002</v>
+      </c>
+      <c r="L23" s="14">
+        <f>SMALL(D$2:D$270,2)</f>
+        <v>15.008261211644378</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24">
         <v>27</v>
       </c>
@@ -43381,10 +45869,23 @@
         <f>IF(OR(B24="-",C24="-"), "-", B24/C24)</f>
         <v>27.184787102108309</v>
       </c>
-      <c r="J24" s="3"/>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="I24" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J24" s="14">
+        <f t="shared" ref="J24:K24" si="4">SMALL(B$2:B$270,3)</f>
+        <v>37.393000000000001</v>
+      </c>
+      <c r="K24" s="14">
+        <f t="shared" si="4"/>
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="L24" s="14">
+        <f>SMALL(D$2:D$270,3)</f>
+        <v>15.283040488922843</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25">
         <v>28</v>
       </c>
@@ -43398,10 +45899,8 @@
         <f>IF(OR(B25="-",C25="-"), "-", B25/C25)</f>
         <v>17.218942731277533</v>
       </c>
-      <c r="J25" s="3"/>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="1:12">
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26">
         <v>29</v>
       </c>
@@ -43415,10 +45914,23 @@
         <f>IF(OR(B26="-",C26="-"), "-", B26/C26)</f>
         <v>16.547795722391971</v>
       </c>
-      <c r="J26" s="3"/>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="I26" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="J26" s="14">
+        <f t="shared" ref="J26:K26" si="5">LARGE(B$2:B$270,1)</f>
+        <v>261.79000000000002</v>
+      </c>
+      <c r="K26" s="14">
+        <f t="shared" si="5"/>
+        <v>47.545000000000002</v>
+      </c>
+      <c r="L26" s="14">
+        <f>LARGE(D$2:D$270,1)</f>
+        <v>53.502963417126516</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27">
         <v>30</v>
       </c>
@@ -43432,10 +45944,23 @@
         <f>IF(OR(B27="-",C27="-"), "-", B27/C27)</f>
         <v>16.974698326196965</v>
       </c>
-      <c r="J27" s="3"/>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="I27" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J27" s="14">
+        <f t="shared" ref="J27:K27" si="6">LARGE(B$2:B$270,2)</f>
+        <v>193.108</v>
+      </c>
+      <c r="K27" s="14">
+        <f t="shared" si="6"/>
+        <v>13.32</v>
+      </c>
+      <c r="L27" s="14">
+        <f>LARGE(D$2:D$270,2)</f>
+        <v>48.313966480446929</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28">
         <v>31</v>
       </c>
@@ -43449,10 +45974,23 @@
         <f>IF(OR(B28="-",C28="-"), "-", B28/C28)</f>
         <v>17.166819012797074</v>
       </c>
-      <c r="J28" s="3"/>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="I28" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J28" s="14">
+        <f t="shared" ref="J28:K28" si="7">LARGE(B$2:B$270,3)</f>
+        <v>136.935</v>
+      </c>
+      <c r="K28" s="14">
+        <f t="shared" si="7"/>
+        <v>10.615</v>
+      </c>
+      <c r="L28" s="14">
+        <f>LARGE(D$2:D$270,3)</f>
+        <v>45.620714285714286</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29">
         <v>32</v>
       </c>
@@ -43469,7 +46007,7 @@
       <c r="J29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:14">
       <c r="A30">
         <v>33</v>
       </c>
@@ -43486,7 +46024,7 @@
       <c r="J30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:14">
       <c r="A31">
         <v>36</v>
       </c>
@@ -43503,7 +46041,7 @@
       <c r="J31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:14">
       <c r="A32">
         <v>37</v>
       </c>
@@ -57742,7 +60280,7 @@
   <autoFilter ref="A1:D3464" xr:uid="{1D1301AC-B08A-524D-AE92-20E4AC91D9DD}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="K6:K9" formula="1"/>
+    <ignoredError sqref="K6:K8" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -57753,7 +60291,7 @@
   <dimension ref="A1:C307"/>
   <sheetViews>
     <sheetView zoomScale="112" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -61702,8 +64240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81FEF6CE-EDC3-E44E-B0BD-71F7631ECBE5}">
   <dimension ref="A1:E307"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="167" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView zoomScale="167" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -68167,8 +70705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC31D34B-0CD5-4E42-93EA-68FB4BD219E3}">
   <dimension ref="A1:I308"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="168" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="C5" zoomScale="363" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -68182,21 +70720,21 @@
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1">
       <c r="A1" s="4"/>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="18">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>38</v>
@@ -68232,11 +70770,11 @@
         <v>0.91514096764015473</v>
       </c>
       <c r="H3" s="10">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I3" s="10">
         <f>H3*F3</f>
-        <v>91.514096764015477</v>
+        <v>183.02819352803095</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -68285,11 +70823,11 @@
         <v>0.5357142857142857</v>
       </c>
       <c r="H5" s="10">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I5" s="10">
         <f>H5*F5</f>
-        <v>53.571428571428569</v>
+        <v>107.14285714285714</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -68339,11 +70877,11 @@
         <v>1</v>
       </c>
       <c r="H7" s="10">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I7" s="10">
         <f>H7*F7</f>
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -73456,8 +75994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CF4BF39-4372-3840-B51D-1A3F7EE80BC6}">
   <dimension ref="A1:I308"/>
   <sheetViews>
-    <sheetView zoomScale="163" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" topLeftCell="D3" zoomScale="342" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -73473,11 +76011,11 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="4"/>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:9" ht="18">
       <c r="A2" s="4" t="s">
@@ -73524,11 +76062,11 @@
         <v>0.67930282060855574</v>
       </c>
       <c r="H3" s="10">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="I3" s="10">
         <f>H3*F3</f>
-        <v>237.75598721299451</v>
+        <v>339.65141030427787</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -73578,11 +76116,11 @@
         <v>0.51020408163265307</v>
       </c>
       <c r="H5" s="10">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="I5" s="10">
         <f>H5*F5</f>
-        <v>178.57142857142858</v>
+        <v>255.10204081632654</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -73632,11 +76170,11 @@
         <v>0.81412639405204457</v>
       </c>
       <c r="H7" s="10">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="I7" s="10">
         <f>H7*F7</f>
-        <v>284.94423791821561</v>
+        <v>407.06319702602229</v>
       </c>
     </row>
     <row r="8" spans="1:9">
